--- a/Кликер Таблица Улучшений.xlsx
+++ b/Кликер Таблица Улучшений.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/son1kx/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35475399-5A0F-C54A-B951-CB1191DDC2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2294F1-F7DD-964F-A616-CA68B12F11A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{8AF5AB6E-9773-684C-8C9E-85B0D6E7A214}"/>
   </bookViews>
@@ -1027,36 +1027,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,44 +1391,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="100" t="s">
+      <c r="A1" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="100" t="s">
+      <c r="G1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="105"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="I2" s="106" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="I2" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="J2" s="103" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1454,11 +1454,11 @@
       <c r="G3" s="68">
         <v>0</v>
       </c>
-      <c r="I3" s="102" t="str">
+      <c r="I3" s="100" t="str">
         <f>"('" &amp; A3 &amp; "','" &amp; B3 &amp; "'," &amp; C3 &amp; "," &amp; G3 &amp; "," &amp; SUBSTITUTE(F3,",",".") &amp; "),"</f>
         <v>('Сэндвич','dish',0,0,1),</v>
       </c>
-      <c r="J3" s="103" t="str">
+      <c r="J3" s="101" t="str">
         <f>"('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; E3 &amp; "'," &amp; SUBSTITUTE(D3,",",".") &amp; "),"</f>
         <v>('Сэндвич','dish','mPc',1),</v>
       </c>
@@ -1485,11 +1485,11 @@
       <c r="G4" s="72">
         <v>0</v>
       </c>
-      <c r="I4" s="102" t="str">
+      <c r="I4" s="100" t="str">
         <f t="shared" ref="I4:I67" si="0">"('" &amp; A4 &amp; "','" &amp; B4 &amp; "'," &amp; C4 &amp; "," &amp; G4 &amp; "," &amp; SUBSTITUTE(F4,",",".") &amp; "),"</f>
         <v>('Газировка','dish',25,0,1),</v>
       </c>
-      <c r="J4" s="103" t="str">
+      <c r="J4" s="101" t="str">
         <f t="shared" ref="J4:J67" si="1">"('" &amp; A4 &amp; "','" &amp; B4 &amp; "','" &amp; E4 &amp; "'," &amp; SUBSTITUTE(D4,",",".") &amp; "),"</f>
         <v>('Газировка','dish','mPc',1),</v>
       </c>
@@ -1516,11 +1516,11 @@
       <c r="G5" s="72">
         <v>0</v>
       </c>
-      <c r="I5" s="102" t="str">
+      <c r="I5" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Картошка фри','dish',40,0,1),</v>
       </c>
-      <c r="J5" s="103" t="str">
+      <c r="J5" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Картошка фри','dish','mPc',1),</v>
       </c>
@@ -1547,11 +1547,11 @@
       <c r="G6" s="72">
         <v>1</v>
       </c>
-      <c r="I6" s="102" t="str">
+      <c r="I6" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Наггетсы','dish',60,1,1),</v>
       </c>
-      <c r="J6" s="103" t="str">
+      <c r="J6" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Наггетсы','dish','mPc',1),</v>
       </c>
@@ -1578,11 +1578,11 @@
       <c r="G7" s="72">
         <v>1</v>
       </c>
-      <c r="I7" s="102" t="str">
+      <c r="I7" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Гамбургер','dish',90,1,1),</v>
       </c>
-      <c r="J7" s="103" t="str">
+      <c r="J7" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Гамбургер','dish','mPc',1),</v>
       </c>
@@ -1609,11 +1609,11 @@
       <c r="G8" s="72">
         <v>1</v>
       </c>
-      <c r="I8" s="102" t="str">
+      <c r="I8" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Картоф. дольки ','dish',130,1,1),</v>
       </c>
-      <c r="J8" s="103" t="str">
+      <c r="J8" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Картоф. дольки ','dish','mPc',1),</v>
       </c>
@@ -1640,11 +1640,11 @@
       <c r="G9" s="72">
         <v>2</v>
       </c>
-      <c r="I9" s="102" t="str">
+      <c r="I9" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Хот-дог','dish',200,2,1),</v>
       </c>
-      <c r="J9" s="103" t="str">
+      <c r="J9" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Хот-дог','dish','mPc',1),</v>
       </c>
@@ -1671,11 +1671,11 @@
       <c r="G10" s="72">
         <v>3</v>
       </c>
-      <c r="I10" s="102" t="str">
+      <c r="I10" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Чизбургер','dish',320,3,1),</v>
       </c>
-      <c r="J10" s="103" t="str">
+      <c r="J10" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Чизбургер','dish','mPc',1),</v>
       </c>
@@ -1702,11 +1702,11 @@
       <c r="G11" s="72">
         <v>4</v>
       </c>
-      <c r="I11" s="102" t="str">
+      <c r="I11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Милкшейк клубника','dish',500,4,1),</v>
       </c>
-      <c r="J11" s="103" t="str">
+      <c r="J11" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Милкшейк клубника','dish','mPc',1),</v>
       </c>
@@ -1733,11 +1733,11 @@
       <c r="G12" s="72">
         <v>5</v>
       </c>
-      <c r="I12" s="102" t="str">
+      <c r="I12" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Тако','dish',800,5,1),</v>
       </c>
-      <c r="J12" s="103" t="str">
+      <c r="J12" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Тако','dish','mPc',1),</v>
       </c>
@@ -1764,11 +1764,11 @@
       <c r="G13" s="72">
         <v>5</v>
       </c>
-      <c r="I13" s="102" t="str">
+      <c r="I13" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Панини','dish',1200,5,1),</v>
       </c>
-      <c r="J13" s="103" t="str">
+      <c r="J13" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Панини','dish','mPc',1),</v>
       </c>
@@ -1795,11 +1795,11 @@
       <c r="G14" s="72">
         <v>5</v>
       </c>
-      <c r="I14" s="102" t="str">
+      <c r="I14" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Вафля','dish',1800,5,1),</v>
       </c>
-      <c r="J14" s="103" t="str">
+      <c r="J14" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Вафля','dish','mPc',2),</v>
       </c>
@@ -1826,11 +1826,11 @@
       <c r="G15" s="72">
         <v>6</v>
       </c>
-      <c r="I15" s="102" t="str">
+      <c r="I15" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Буррито','dish',2600,6,1),</v>
       </c>
-      <c r="J15" s="103" t="str">
+      <c r="J15" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Буррито','dish','mPc',2),</v>
       </c>
@@ -1857,11 +1857,11 @@
       <c r="G16" s="72">
         <v>7</v>
       </c>
-      <c r="I16" s="102" t="str">
+      <c r="I16" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Багет','dish',3800,7,1),</v>
       </c>
-      <c r="J16" s="103" t="str">
+      <c r="J16" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Багет','dish','mPc',2),</v>
       </c>
@@ -1888,11 +1888,11 @@
       <c r="G17" s="72">
         <v>8</v>
       </c>
-      <c r="I17" s="102" t="str">
+      <c r="I17" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Пончик','dish',5500,8,1),</v>
       </c>
-      <c r="J17" s="103" t="str">
+      <c r="J17" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Пончик','dish','mPc',3),</v>
       </c>
@@ -1919,11 +1919,11 @@
       <c r="G18" s="72">
         <v>9</v>
       </c>
-      <c r="I18" s="102" t="str">
+      <c r="I18" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Мороженое','dish',8000,9,1),</v>
       </c>
-      <c r="J18" s="103" t="str">
+      <c r="J18" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Мороженое','dish','mPc',3),</v>
       </c>
@@ -1950,11 +1950,11 @@
       <c r="G19" s="72">
         <v>10</v>
       </c>
-      <c r="I19" s="102" t="str">
+      <c r="I19" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Тирамису','dish',12000,10,1),</v>
       </c>
-      <c r="J19" s="103" t="str">
+      <c r="J19" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Тирамису','dish','mPc',4),</v>
       </c>
@@ -1981,11 +1981,11 @@
       <c r="G20" s="72">
         <v>10</v>
       </c>
-      <c r="I20" s="102" t="str">
+      <c r="I20" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Милкшейк ваниль','dish',18000,10,1),</v>
       </c>
-      <c r="J20" s="103" t="str">
+      <c r="J20" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Милкшейк ваниль','dish','mPc',4),</v>
       </c>
@@ -2012,11 +2012,11 @@
       <c r="G21" s="72">
         <v>10</v>
       </c>
-      <c r="I21" s="102" t="str">
+      <c r="I21" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Круассаны','dish',26000,10,1),</v>
       </c>
-      <c r="J21" s="103" t="str">
+      <c r="J21" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Круассаны','dish','mPc',5),</v>
       </c>
@@ -2043,11 +2043,11 @@
       <c r="G22" s="72">
         <v>11</v>
       </c>
-      <c r="I22" s="102" t="str">
+      <c r="I22" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Чизкейк','dish',38000,11,1),</v>
       </c>
-      <c r="J22" s="103" t="str">
+      <c r="J22" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Чизкейк','dish','mPc',6),</v>
       </c>
@@ -2074,11 +2074,11 @@
       <c r="G23" s="72">
         <v>12</v>
       </c>
-      <c r="I23" s="102" t="str">
+      <c r="I23" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Сок','dish',55000,12,1),</v>
       </c>
-      <c r="J23" s="103" t="str">
+      <c r="J23" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Сок','dish','mPc',7),</v>
       </c>
@@ -2105,11 +2105,11 @@
       <c r="G24" s="72">
         <v>13</v>
       </c>
-      <c r="I24" s="102" t="str">
+      <c r="I24" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Кексы','dish',80000,13,1),</v>
       </c>
-      <c r="J24" s="103" t="str">
+      <c r="J24" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Кексы','dish','mPc',8),</v>
       </c>
@@ -2136,11 +2136,11 @@
       <c r="G25" s="72">
         <v>14</v>
       </c>
-      <c r="I25" s="102" t="str">
+      <c r="I25" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Панкейки','dish',120000,14,1),</v>
       </c>
-      <c r="J25" s="103" t="str">
+      <c r="J25" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Панкейки','dish','mPc',9),</v>
       </c>
@@ -2167,11 +2167,11 @@
       <c r="G26" s="72">
         <v>15</v>
       </c>
-      <c r="I26" s="102" t="str">
+      <c r="I26" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Американо','dish',180000,15,1),</v>
       </c>
-      <c r="J26" s="103" t="str">
+      <c r="J26" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Американо','dish','mPc',10),</v>
       </c>
@@ -2198,11 +2198,11 @@
       <c r="G27" s="72">
         <v>15</v>
       </c>
-      <c r="I27" s="102" t="str">
+      <c r="I27" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Макаруны','dish',260000,15,1),</v>
       </c>
-      <c r="J27" s="103" t="str">
+      <c r="J27" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Макаруны','dish','mPc',11),</v>
       </c>
@@ -2229,11 +2229,11 @@
       <c r="G28" s="72">
         <v>15</v>
       </c>
-      <c r="I28" s="102" t="str">
+      <c r="I28" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Капучино','dish',380000,15,1),</v>
       </c>
-      <c r="J28" s="103" t="str">
+      <c r="J28" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Капучино','dish','mPc',12),</v>
       </c>
@@ -2260,11 +2260,11 @@
       <c r="G29" s="72">
         <v>16</v>
       </c>
-      <c r="I29" s="102" t="str">
+      <c r="I29" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Морской салат','dish',550000,16,1),</v>
       </c>
-      <c r="J29" s="103" t="str">
+      <c r="J29" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Морской салат','dish','mPc',13),</v>
       </c>
@@ -2291,11 +2291,11 @@
       <c r="G30" s="72">
         <v>17</v>
       </c>
-      <c r="I30" s="102" t="str">
+      <c r="I30" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Чай','dish',800000,17,1),</v>
       </c>
-      <c r="J30" s="103" t="str">
+      <c r="J30" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Чай','dish','mPc',15),</v>
       </c>
@@ -2322,11 +2322,11 @@
       <c r="G31" s="72">
         <v>18</v>
       </c>
-      <c r="I31" s="102" t="str">
+      <c r="I31" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Омлет','dish',1200000,18,1),</v>
       </c>
-      <c r="J31" s="103" t="str">
+      <c r="J31" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Омлет','dish','mPc',16),</v>
       </c>
@@ -2353,11 +2353,11 @@
       <c r="G32" s="72">
         <v>19</v>
       </c>
-      <c r="I32" s="102" t="str">
+      <c r="I32" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Клубничный смузи','dish',1800000,19,1),</v>
       </c>
-      <c r="J32" s="103" t="str">
+      <c r="J32" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Клубничный смузи','dish','mPc',19),</v>
       </c>
@@ -2384,11 +2384,11 @@
       <c r="G33" s="72">
         <v>20</v>
       </c>
-      <c r="I33" s="102" t="str">
+      <c r="I33" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Пицца','dish',3000000,20,1),</v>
       </c>
-      <c r="J33" s="103" t="str">
+      <c r="J33" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Пицца','dish','mPc',21),</v>
       </c>
@@ -2415,11 +2415,11 @@
       <c r="G34" s="72">
         <v>20</v>
       </c>
-      <c r="I34" s="102" t="str">
+      <c r="I34" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Ролл с креветкой','dish',4500000,20,1),</v>
       </c>
-      <c r="J34" s="103" t="str">
+      <c r="J34" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Ролл с креветкой','dish','mPc',25),</v>
       </c>
@@ -2446,11 +2446,11 @@
       <c r="G35" s="72">
         <v>20</v>
       </c>
-      <c r="I35" s="102" t="str">
+      <c r="I35" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Палтус','dish',6500000,20,1),</v>
       </c>
-      <c r="J35" s="103" t="str">
+      <c r="J35" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Палтус','dish','mPc',28),</v>
       </c>
@@ -2477,11 +2477,11 @@
       <c r="G36" s="72">
         <v>21</v>
       </c>
-      <c r="I36" s="102" t="str">
+      <c r="I36" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Мохито','dish',9500000,21,1),</v>
       </c>
-      <c r="J36" s="103" t="str">
+      <c r="J36" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Мохито','dish','mPc',32),</v>
       </c>
@@ -2508,11 +2508,11 @@
       <c r="G37" s="72">
         <v>22</v>
       </c>
-      <c r="I37" s="102" t="str">
+      <c r="I37" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Спагетти','dish',14000000,22,1),</v>
       </c>
-      <c r="J37" s="103" t="str">
+      <c r="J37" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Спагетти','dish','mPc',36),</v>
       </c>
@@ -2539,11 +2539,11 @@
       <c r="G38" s="72">
         <v>23</v>
       </c>
-      <c r="I38" s="102" t="str">
+      <c r="I38" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Суфле','dish',20000000,23,1),</v>
       </c>
-      <c r="J38" s="103" t="str">
+      <c r="J38" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Суфле','dish','mPc',17),</v>
       </c>
@@ -2570,11 +2570,11 @@
       <c r="G39" s="72">
         <v>24</v>
       </c>
-      <c r="I39" s="102" t="str">
+      <c r="I39" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Вино','dish',30000000,24,1),</v>
       </c>
-      <c r="J39" s="103" t="str">
+      <c r="J39" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Вино','dish','mPc',20),</v>
       </c>
@@ -2601,11 +2601,11 @@
       <c r="G40" s="72">
         <v>25</v>
       </c>
-      <c r="I40" s="102" t="str">
+      <c r="I40" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Рамен','dish',45000000,25,1),</v>
       </c>
-      <c r="J40" s="103" t="str">
+      <c r="J40" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Рамен','dish','mPc',23),</v>
       </c>
@@ -2632,11 +2632,11 @@
       <c r="G41" s="72">
         <v>26</v>
       </c>
-      <c r="I41" s="102" t="str">
+      <c r="I41" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Стейк','dish',70000000,26,1),</v>
       </c>
-      <c r="J41" s="103" t="str">
+      <c r="J41" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Стейк','dish','mPc',26),</v>
       </c>
@@ -2663,11 +2663,11 @@
       <c r="G42" s="72">
         <v>27</v>
       </c>
-      <c r="I42" s="102" t="str">
+      <c r="I42" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Дракон-ролл','dish',110000000,27,1),</v>
       </c>
-      <c r="J42" s="103" t="str">
+      <c r="J42" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Дракон-ролл','dish','mPc',32),</v>
       </c>
@@ -2694,11 +2694,11 @@
       <c r="G43" s="72">
         <v>28</v>
       </c>
-      <c r="I43" s="102" t="str">
+      <c r="I43" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Том-Ям','dish',170000000,28,1),</v>
       </c>
-      <c r="J43" s="103" t="str">
+      <c r="J43" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Том-Ям','dish','mPc',38),</v>
       </c>
@@ -2725,11 +2725,11 @@
       <c r="G44" s="72">
         <v>29</v>
       </c>
-      <c r="I44" s="102" t="str">
+      <c r="I44" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Суши-сет','dish',260000000,29,1),</v>
       </c>
-      <c r="J44" s="103" t="str">
+      <c r="J44" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Суши-сет','dish','mPc',46),</v>
       </c>
@@ -2756,11 +2756,11 @@
       <c r="G45" s="72">
         <v>30</v>
       </c>
-      <c r="I45" s="102" t="str">
+      <c r="I45" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Авторское','dish',400000000,30,1),</v>
       </c>
-      <c r="J45" s="103" t="str">
+      <c r="J45" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Авторское','dish','mPc',56),</v>
       </c>
@@ -2787,11 +2787,11 @@
       <c r="G46" s="72">
         <v>30</v>
       </c>
-      <c r="I46" s="102" t="str">
+      <c r="I46" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Апероль Спритц','dish',600000000,30,1),</v>
       </c>
-      <c r="J46" s="103" t="str">
+      <c r="J46" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Апероль Спритц','dish','mPc',67),</v>
       </c>
@@ -2818,11 +2818,11 @@
       <c r="G47" s="72">
         <v>30</v>
       </c>
-      <c r="I47" s="102" t="str">
+      <c r="I47" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Мясная нарезка','dish',900000000,30,1),</v>
       </c>
-      <c r="J47" s="103" t="str">
+      <c r="J47" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Мясная нарезка','dish','mPc',79),</v>
       </c>
@@ -2849,11 +2849,11 @@
       <c r="G48" s="72">
         <v>35</v>
       </c>
-      <c r="I48" s="102" t="str">
+      <c r="I48" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Френч-сет','dish',1400000000,35,1),</v>
       </c>
-      <c r="J48" s="103" t="str">
+      <c r="J48" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Френч-сет','dish','mPc',95),</v>
       </c>
@@ -2880,11 +2880,11 @@
       <c r="G49" s="72">
         <v>40</v>
       </c>
-      <c r="I49" s="102" t="str">
+      <c r="I49" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Рыбный микс','dish',2200000000,40,1),</v>
       </c>
-      <c r="J49" s="103" t="str">
+      <c r="J49" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Рыбный микс','dish','mPc',115),</v>
       </c>
@@ -2911,11 +2911,11 @@
       <c r="G50" s="72">
         <v>40</v>
       </c>
-      <c r="I50" s="102" t="str">
+      <c r="I50" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Блюдо от шефа','dish',3500000000,40,1),</v>
       </c>
-      <c r="J50" s="103" t="str">
+      <c r="J50" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Блюдо от шефа','dish','mPc',139),</v>
       </c>
@@ -2942,11 +2942,11 @@
       <c r="G51" s="72">
         <v>40</v>
       </c>
-      <c r="I51" s="102" t="str">
+      <c r="I51" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Бабл-ти матча','dish',5500000000,40,1),</v>
       </c>
-      <c r="J51" s="103" t="str">
+      <c r="J51" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Бабл-ти матча','dish','mPc',170),</v>
       </c>
@@ -2973,11 +2973,11 @@
       <c r="G52" s="72">
         <v>45</v>
       </c>
-      <c r="I52" s="102" t="str">
+      <c r="I52" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Тропический сет','dish',8500000000,45,1),</v>
       </c>
-      <c r="J52" s="103" t="str">
+      <c r="J52" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Тропический сет','dish','mPc',206),</v>
       </c>
@@ -3004,11 +3004,11 @@
       <c r="G53" s="72">
         <v>50</v>
       </c>
-      <c r="I53" s="102" t="str">
+      <c r="I53" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Конфи из утки','dish',13000000000,50,1),</v>
       </c>
-      <c r="J53" s="103" t="str">
+      <c r="J53" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Конфи из утки','dish','mPc',251),</v>
       </c>
@@ -3035,11 +3035,11 @@
       <c r="G54" s="72">
         <v>50</v>
       </c>
-      <c r="I54" s="102" t="str">
+      <c r="I54" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Бургер с трюфелем','dish',20000000000,50,1),</v>
       </c>
-      <c r="J54" s="103" t="str">
+      <c r="J54" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Бургер с трюфелем','dish','mPc',305),</v>
       </c>
@@ -3066,11 +3066,11 @@
       <c r="G55" s="72">
         <v>50</v>
       </c>
-      <c r="I55" s="102" t="str">
+      <c r="I55" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Бабл-ти анчан','dish',32000000000,50,1),</v>
       </c>
-      <c r="J55" s="103" t="str">
+      <c r="J55" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Бабл-ти анчан','dish','mPc',371),</v>
       </c>
@@ -3097,11 +3097,11 @@
       <c r="G56" s="72">
         <v>50</v>
       </c>
-      <c r="I56" s="102" t="str">
+      <c r="I56" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Фуа-гра сет','dish',50000000000,50,1),</v>
       </c>
-      <c r="J56" s="103" t="str">
+      <c r="J56" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Фуа-гра сет','dish','mPc',450),</v>
       </c>
@@ -3128,11 +3128,11 @@
       <c r="G57" s="72">
         <v>50</v>
       </c>
-      <c r="I57" s="102" t="str">
+      <c r="I57" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Мишлен-фантазия','dish',80000000000,50,1),</v>
       </c>
-      <c r="J57" s="103" t="str">
+      <c r="J57" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Мишлен-фантазия','dish','mPc',547),</v>
       </c>
@@ -3159,11 +3159,11 @@
       <c r="G58" s="72">
         <v>55</v>
       </c>
-      <c r="I58" s="102" t="str">
+      <c r="I58" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Морская сет','dish',125000000000,55,1),</v>
       </c>
-      <c r="J58" s="103" t="str">
+      <c r="J58" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Морская сет','dish','mPc',666),</v>
       </c>
@@ -3190,11 +3190,11 @@
       <c r="G59" s="72">
         <v>60</v>
       </c>
-      <c r="I59" s="102" t="str">
+      <c r="I59" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Матча латте','dish',200000000000,60,1),</v>
       </c>
-      <c r="J59" s="103" t="str">
+      <c r="J59" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Матча латте','dish','mPc',812),</v>
       </c>
@@ -3221,11 +3221,11 @@
       <c r="G60" s="72">
         <v>60</v>
       </c>
-      <c r="I60" s="102" t="str">
+      <c r="I60" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Супрем-блюдо','dish',320000000000,60,1),</v>
       </c>
-      <c r="J60" s="103" t="str">
+      <c r="J60" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Супрем-блюдо','dish','mPc',984),</v>
       </c>
@@ -3252,11 +3252,11 @@
       <c r="G61" s="72">
         <v>60</v>
       </c>
-      <c r="I61" s="102" t="str">
+      <c r="I61" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Десертный сет','dish',520000000000,60,1),</v>
       </c>
-      <c r="J61" s="103" t="str">
+      <c r="J61" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Десертный сет','dish','mPc',1192),</v>
       </c>
@@ -3283,11 +3283,11 @@
       <c r="G62" s="78">
         <v>65</v>
       </c>
-      <c r="I62" s="102" t="str">
+      <c r="I62" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Панна-котта','dish',900000000000,65,1),</v>
       </c>
-      <c r="J62" s="103" t="str">
+      <c r="J62" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Панна-котта','dish','mPc',1455),</v>
       </c>
@@ -3314,11 +3314,11 @@
       <c r="G63" s="52">
         <v>1</v>
       </c>
-      <c r="I63" s="102" t="str">
+      <c r="I63" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Новая плита','equipment',250,1,3.2),</v>
       </c>
-      <c r="J63" s="103" t="str">
+      <c r="J63" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Новая плита','equipment','dPc',1),</v>
       </c>
@@ -3345,11 +3345,11 @@
       <c r="G64" s="58">
         <v>3</v>
       </c>
-      <c r="I64" s="102" t="str">
+      <c r="I64" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Газовая горелка','equipment',800,3,3.5),</v>
       </c>
-      <c r="J64" s="103" t="str">
+      <c r="J64" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Газовая горелка','equipment','dPc',2),</v>
       </c>
@@ -3376,11 +3376,11 @@
       <c r="G65" s="58">
         <v>5</v>
       </c>
-      <c r="I65" s="102" t="str">
+      <c r="I65" s="100" t="str">
         <f t="shared" si="0"/>
         <v>('Доп. касса','equipment',1500,5,3),</v>
       </c>
-      <c r="J65" s="103" t="str">
+      <c r="J65" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Доп. касса','equipment','sPs',2),</v>
       </c>
@@ -3402,16 +3402,16 @@
         <v>73</v>
       </c>
       <c r="F66" s="57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G66" s="58">
         <v>5</v>
       </c>
-      <c r="I66" s="102" t="str">
-        <f t="shared" si="0"/>
-        <v>('Проф. духовка','equipment',4000,5,5),</v>
-      </c>
-      <c r="J66" s="103" t="str">
+      <c r="I66" s="100" t="str">
+        <f t="shared" si="0"/>
+        <v>('Проф. духовка','equipment',4000,5,4),</v>
+      </c>
+      <c r="J66" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Проф. духовка','equipment','dPs',1),</v>
       </c>
@@ -3433,16 +3433,16 @@
         <v>75</v>
       </c>
       <c r="F67" s="57">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="G67" s="58">
         <v>7</v>
       </c>
-      <c r="I67" s="102" t="str">
-        <f t="shared" si="0"/>
-        <v>('Умная касса','equipment',15000,7,2.3),</v>
-      </c>
-      <c r="J67" s="103" t="str">
+      <c r="I67" s="100" t="str">
+        <f t="shared" si="0"/>
+        <v>('Умная касса','equipment',15000,7,3.3),</v>
+      </c>
+      <c r="J67" s="101" t="str">
         <f t="shared" si="1"/>
         <v>('Умная касса','equipment','mPs',1),</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>94</v>
       </c>
       <c r="C68" s="60">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="D68" s="61">
         <v>2</v>
@@ -3469,12 +3469,12 @@
       <c r="G68" s="64">
         <v>20</v>
       </c>
-      <c r="I68" s="102" t="str">
-        <f t="shared" ref="I68:I80" si="2">"('" &amp; A68 &amp; "','" &amp; B68 &amp; "'," &amp; C68 &amp; "," &amp; G68 &amp; "," &amp; SUBSTITUTE(F68,",",".") &amp; "),"</f>
-        <v>('Современный гриль','equipment',200000,20,2.8),</v>
-      </c>
-      <c r="J68" s="103" t="str">
-        <f t="shared" ref="J68:J80" si="3">"('" &amp; A68 &amp; "','" &amp; B68 &amp; "','" &amp; E68 &amp; "'," &amp; SUBSTITUTE(D68,",",".") &amp; "),"</f>
+      <c r="I68" s="100" t="str">
+        <f t="shared" ref="I68:I79" si="2">"('" &amp; A68 &amp; "','" &amp; B68 &amp; "'," &amp; C68 &amp; "," &amp; G68 &amp; "," &amp; SUBSTITUTE(F68,",",".") &amp; "),"</f>
+        <v>('Современный гриль','equipment',500000,20,2.8),</v>
+      </c>
+      <c r="J68" s="101" t="str">
+        <f t="shared" ref="J68:J79" si="3">"('" &amp; A68 &amp; "','" &amp; B68 &amp; "','" &amp; E68 &amp; "'," &amp; SUBSTITUTE(D68,",",".") &amp; "),"</f>
         <v>('Современный гриль','equipment','dM',2),</v>
       </c>
     </row>
@@ -3497,14 +3497,14 @@
       <c r="F69" s="37">
         <v>3.5</v>
       </c>
-      <c r="G69" s="108">
+      <c r="G69" s="104">
         <v>10</v>
       </c>
-      <c r="I69" s="102" t="str">
+      <c r="I69" s="100" t="str">
         <f t="shared" si="2"/>
         <v>('Реклама блюд','global',15000,10,3.5),</v>
       </c>
-      <c r="J69" s="103" t="str">
+      <c r="J69" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Реклама блюд','global','dM',2),</v>
       </c>
@@ -3528,14 +3528,14 @@
       <c r="F70" s="42">
         <v>3</v>
       </c>
-      <c r="G70" s="109">
+      <c r="G70" s="105">
         <v>15</v>
       </c>
-      <c r="I70" s="102" t="str">
+      <c r="I70" s="100" t="str">
         <f t="shared" si="2"/>
         <v>('Повышение цен','global',50000,15,3),</v>
       </c>
-      <c r="J70" s="103" t="str">
+      <c r="J70" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Повышение цен','global','mM',1.5),</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>95</v>
       </c>
       <c r="C71" s="39">
-        <v>95000</v>
+        <v>250000</v>
       </c>
       <c r="D71" s="40">
         <v>10</v>
@@ -3559,14 +3559,14 @@
       <c r="F71" s="42">
         <v>3</v>
       </c>
-      <c r="G71" s="109">
+      <c r="G71" s="105">
         <v>20</v>
       </c>
-      <c r="I71" s="102" t="str">
+      <c r="I71" s="100" t="str">
         <f t="shared" si="2"/>
-        <v>('Качество персонала','global',95000,20,3),</v>
-      </c>
-      <c r="J71" s="103" t="str">
+        <v>('Качество персонала','global',250000,20,3),</v>
+      </c>
+      <c r="J71" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Качество персонала','global','sPs',10),</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>95</v>
       </c>
       <c r="C72" s="39">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="D72" s="40">
         <v>2</v>
@@ -3590,14 +3590,14 @@
       <c r="F72" s="42">
         <v>2.4</v>
       </c>
-      <c r="G72" s="109">
+      <c r="G72" s="105">
         <v>30</v>
       </c>
-      <c r="I72" s="102" t="str">
+      <c r="I72" s="100" t="str">
         <f t="shared" si="2"/>
-        <v>('Авто-продажи','global',500000,30,2.4),</v>
-      </c>
-      <c r="J72" s="103" t="str">
+        <v>('Авто-продажи','global',5000000,30,2.4),</v>
+      </c>
+      <c r="J72" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Авто-продажи','global','mpM',2),</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>95</v>
       </c>
       <c r="C73" s="39">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="D73" s="40">
         <v>5</v>
@@ -3621,14 +3621,14 @@
       <c r="F73" s="42">
         <v>2.8</v>
       </c>
-      <c r="G73" s="109">
+      <c r="G73" s="105">
         <v>40</v>
       </c>
-      <c r="I73" s="102" t="str">
+      <c r="I73" s="100" t="str">
         <f t="shared" si="2"/>
-        <v>('Экспресс-доставка','global',5000000,40,2.8),</v>
-      </c>
-      <c r="J73" s="103" t="str">
+        <v>('Экспресс-доставка','global',20000000,40,2.8),</v>
+      </c>
+      <c r="J73" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Экспресс-доставка','global','mpM',5),</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>95</v>
       </c>
       <c r="C74" s="79">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="D74" s="44">
         <v>100</v>
@@ -3652,14 +3652,14 @@
       <c r="F74" s="46">
         <v>2</v>
       </c>
-      <c r="G74" s="110">
+      <c r="G74" s="106">
         <v>40</v>
       </c>
-      <c r="I74" s="102" t="str">
+      <c r="I74" s="100" t="str">
         <f t="shared" si="2"/>
-        <v>('Быстрый расчет','global',10000000,40,2),</v>
-      </c>
-      <c r="J74" s="103" t="str">
+        <v>('Быстрый расчет','global',50000000,40,2),</v>
+      </c>
+      <c r="J74" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Быстрый расчет','global','sPs',100),</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>96</v>
       </c>
       <c r="C75" s="31">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D75" s="6">
         <v>10</v>
@@ -3686,11 +3686,11 @@
       <c r="G75" s="9">
         <v>20</v>
       </c>
-      <c r="I75" s="102" t="str">
+      <c r="I75" s="100" t="str">
         <f t="shared" si="2"/>
-        <v>('Официант','staff',100000,20,2.3),</v>
-      </c>
-      <c r="J75" s="103" t="str">
+        <v>('Официант','staff',200000,20,2.3),</v>
+      </c>
+      <c r="J75" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Официант','staff','mPs',10),</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>96</v>
       </c>
       <c r="C76" s="32">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="D76" s="11">
         <v>10</v>
@@ -3717,11 +3717,11 @@
       <c r="G76" s="14">
         <v>20</v>
       </c>
-      <c r="I76" s="102" t="str">
+      <c r="I76" s="100" t="str">
         <f t="shared" si="2"/>
-        <v>('Шеф-повар','staff',80000,20,2.3),</v>
-      </c>
-      <c r="J76" s="103" t="str">
+        <v>('Шеф-повар','staff',150000,20,2.3),</v>
+      </c>
+      <c r="J76" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Шеф-повар','staff','dPs',10),</v>
       </c>
@@ -3748,11 +3748,11 @@
       <c r="G77" s="19">
         <v>70</v>
       </c>
-      <c r="I77" s="102" t="str">
+      <c r="I77" s="100" t="str">
         <f t="shared" si="2"/>
         <v>('Фудтрак','point',100000000000,70,2.2),</v>
       </c>
-      <c r="J77" s="103" t="str">
+      <c r="J77" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Фудтрак','point','mPs',500),</v>
       </c>
@@ -3779,11 +3779,11 @@
       <c r="G78" s="24">
         <v>75</v>
       </c>
-      <c r="I78" s="102" t="str">
+      <c r="I78" s="100" t="str">
         <f t="shared" si="2"/>
         <v>('Маленькое кафе','point',150000000000,75,2.2),</v>
       </c>
-      <c r="J78" s="103" t="str">
+      <c r="J78" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Маленькое кафе','point','mPs',1500),</v>
       </c>
@@ -3810,11 +3810,11 @@
       <c r="G79" s="24">
         <v>80</v>
       </c>
-      <c r="I79" s="102" t="str">
+      <c r="I79" s="100" t="str">
         <f t="shared" si="2"/>
         <v>('Ресторан','point',500000000000,80,2.3),</v>
       </c>
-      <c r="J79" s="103" t="str">
+      <c r="J79" s="101" t="str">
         <f t="shared" si="3"/>
         <v>('Ресторан','point','mPs',5000),</v>
       </c>
@@ -3841,11 +3841,11 @@
       <c r="G80" s="29">
         <v>90</v>
       </c>
-      <c r="I80" s="102" t="str">
+      <c r="I80" s="100" t="str">
         <f>"('" &amp; A80 &amp; "','" &amp; B80 &amp; "'," &amp; C80 &amp; "," &amp; G80 &amp; "," &amp; SUBSTITUTE(F80,",",".") &amp; ")"</f>
         <v>('Гастро-ресторан','point',1500000000000,90,2.4)</v>
       </c>
-      <c r="J80" s="103" t="str">
+      <c r="J80" s="101" t="str">
         <f>"('" &amp; A80 &amp; "','" &amp; B80 &amp; "','" &amp; E80 &amp; "'," &amp; SUBSTITUTE(D80,",",".") &amp; ")"</f>
         <v>('Гастро-ресторан','point','mPs',15000)</v>
       </c>
@@ -3853,14 +3853,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="8">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
